--- a/data_92.xlsx
+++ b/data_92.xlsx
@@ -118,7 +118,7 @@
         <v>3.3674044454016174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03631199418134681</v>
+        <v>0.12972342025201142</v>
       </c>
       <c r="F2" t="n">
         <v>0.043293398106924334</v>
@@ -138,7 +138,7 @@
         <v>6.6990891964323005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07470811197701077</v>
+        <v>0.2668923044498197</v>
       </c>
       <c r="F3" t="n">
         <v>0.2849437604274001</v>
@@ -158,7 +158,7 @@
         <v>7.907981841257856</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08929721460188605</v>
+        <v>0.31901139990502353</v>
       </c>
       <c r="F4" t="n">
         <v>0.6717628414656756</v>
